--- a/OnlyFansConfig.xlsx
+++ b/OnlyFansConfig.xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>__cf_bm=KAVrhRLt93LK_ZwhDRJfwOsBccQGbEL1DO5RUHEu8pU-1724010617-1.0.1.1-oU_Ax82WEztpb0I6tMdzAfkLlzkeD0tyWP93tZjzbt8S32RQ01LWHEFR3U1v6RRWl4MUdbp9oBs5oUVtk9sYlQ; _cfuvid=H3FmipWz7Aex1FC861ol3ftop4KdzZVEIIAB_J0Y81Y-1724010617967-0.0.1.1-604800000; fp=bcc1bc9e22120a1ebe14b6d38a357afd4c07a2aa</t>
+          <t>__cf_bm=b4paGUjt0yWHJTq0l6gjS511v.mEnOrqN4Msv6m8038-1724178061-1.0.1.1-X6mjsYaFtaqjmrwzNpNeWJpmSiilDP_hOuUP0MIqVZhfwM0_E3W.qDkL_swz3uxgIfF4.lZtahJIBUKyOPCuvg; _cfuvid=fO0fEyeNLlpuyF450q5QwH4AHqitu_P6N.4E.8.dAjg-1724178061949-0.0.1.1-604800000; fp=5f04da6822009d11f1427a6ecd398cdfeac33381</t>
         </is>
       </c>
     </row>
